--- a/80.reference/오라클_데이터베이스/20210630_기초공부_자료.xlsx
+++ b/80.reference/오라클_데이터베이스/20210630_기초공부_자료.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00.KOSMO93\80.자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5AF27D-5203-4921-8B12-7EE05EE517BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D98417D-2D24-40E4-A3E5-C6BFC76E1778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{76E4A3D2-DEE9-4D9F-B111-705009A14FA0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="751">
   <si>
     <t xml:space="preserve">help </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2786,6 +2786,142 @@
       </rPr>
       <t xml:space="preserve"> " border="1" width="25" height="25" alt="image"&gt;</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var v1 = $("#ISUD_TYPE").val('U');</t>
+  </si>
+  <si>
+    <t>/testKosmo/board?ISUD_TYPE=+isudType</t>
+  </si>
+  <si>
+    <t>var v2 = $("#ISUD_TYPE").val('D');</t>
+  </si>
+  <si>
+    <t>if ("S".equals(isudType) || "U".equals(isudType) || "D".equals(isudType))</t>
+  </si>
+  <si>
+    <t>bvo.setBnum(bnum);</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;BoardVO&gt; aListS = bs.boardSelect(bvo);</t>
+  </si>
+  <si>
+    <t>if(aListS !=null &amp;&amp; aListS.size() &gt; 0) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request.setAttribute("aListS", aListS);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"/kosmo/board/boardSelect.jsp" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;BoardVO&gt; boardSelect(BoardVO bvo)</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;BoardVO&gt; boardSelect(BoardVO bvo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pstmt.setString(1, bvo.getBnum())</t>
+  </si>
+  <si>
+    <t>String getBoardSelectQuery()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND   A.BNUM = ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardSelect.jsp</t>
+  </si>
+  <si>
+    <t>var v1 = "UOK";</t>
+  </si>
+  <si>
+    <t>/testKosmo/board?ISUD_TYPE=+v1</t>
+  </si>
+  <si>
+    <t>var v2 = "DOK"</t>
+  </si>
+  <si>
+    <t>/testKosmo/board?ISUD_TYPE=+v2</t>
+  </si>
+  <si>
+    <t>UOK.equals(isudType)</t>
+  </si>
+  <si>
+    <t>DOK.equals(isudType)</t>
+  </si>
+  <si>
+    <t>bvo.setBmemo(bmemo);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bvo.setBsubject(bsubject);			</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean bUpdate = bs.boardUpdate(bvo);</t>
+  </si>
+  <si>
+    <t>if (bUpdate) {"/kosmo/board/boardUpdate.jsp"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean bDelete = bs.boardDelete(bvo);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bDelete) {"/kosmo/board/boardDelete.jsp"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;BoardVO&gt; boardUpdate(BoardVO bvo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String getBoardUpdateQuery()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String getBoardDeleteQuery()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BSUBJECT = ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHERE BNUM = ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,BMEMO = ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pstmt.setString(1, bvo.getBsubject());</t>
+  </si>
+  <si>
+    <t>pstmt.setString(2, bvo.getBmemo());</t>
+  </si>
+  <si>
+    <t>pstmt.setString(3, bvo.getBnum());</t>
+  </si>
+  <si>
+    <t>boardUpdate.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardDelete.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3786,7 +3922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="415">
+  <cellXfs count="416">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5031,6 +5167,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15944,19 +16083,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FD2099-79D4-4375-8055-DA218DE583FE}">
-  <dimension ref="B4:H55"/>
+  <dimension ref="B4:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="45.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
@@ -15994,20 +16134,20 @@
       <c r="F6" s="72"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="21" t="s">
         <v>688</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
         <v>689</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="21" t="s">
         <v>691</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="21" t="s">
         <v>691</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="21" t="s">
         <v>692</v>
       </c>
     </row>
@@ -16187,7 +16327,7 @@
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="D30" t="s">
+      <c r="D30" s="211" t="s">
         <v>684</v>
       </c>
     </row>
@@ -16197,19 +16337,19 @@
       </c>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="21" t="s">
         <v>685</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="21" t="s">
         <v>690</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="21" t="s">
         <v>694</v>
       </c>
     </row>
@@ -16273,39 +16413,332 @@
         <v>703</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:7">
       <c r="C49" s="212" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:7">
       <c r="C50" s="212" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:7">
       <c r="C51" s="212" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:7">
       <c r="C52" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="3:7">
       <c r="C53" s="211" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="3:7">
       <c r="C54" s="212" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="3:7">
       <c r="C55" s="212" t="s">
         <v>709</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="C59" t="s">
+        <v>713</v>
+      </c>
+      <c r="D59" t="s">
+        <v>681</v>
+      </c>
+      <c r="F59" s="211" t="s">
+        <v>723</v>
+      </c>
+      <c r="G59" s="211" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="D60" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7">
+      <c r="D61" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="D63" s="211" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7">
+      <c r="D64" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="D65" s="211" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="D66" s="211" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="D67" s="211" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7">
+      <c r="C71" t="s">
+        <v>713</v>
+      </c>
+      <c r="D71" t="s">
+        <v>681</v>
+      </c>
+      <c r="F71" s="211" t="s">
+        <v>723</v>
+      </c>
+      <c r="G71" s="211" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7">
+      <c r="D72" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7">
+      <c r="D73" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7">
+      <c r="D75" s="211" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="D76" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7">
+      <c r="D77" s="211" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="D78" s="211" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7">
+      <c r="D79" s="211" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8">
+      <c r="C82" s="72" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8">
+      <c r="C84" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8">
+      <c r="C85" t="s">
+        <v>728</v>
+      </c>
+      <c r="D85" t="s">
+        <v>681</v>
+      </c>
+      <c r="F85" s="211" t="s">
+        <v>746</v>
+      </c>
+      <c r="G85" s="211" t="s">
+        <v>743</v>
+      </c>
+      <c r="H85" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8">
+      <c r="D86" t="s">
+        <v>682</v>
+      </c>
+      <c r="F86" s="212" t="s">
+        <v>747</v>
+      </c>
+      <c r="G86" s="212" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8">
+      <c r="D87" t="s">
+        <v>683</v>
+      </c>
+      <c r="F87" s="212" t="s">
+        <v>748</v>
+      </c>
+      <c r="G87" s="212" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8">
+      <c r="D89" s="211" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8">
+      <c r="D90" s="415" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8">
+      <c r="D91" s="212" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8">
+      <c r="D92" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8">
+      <c r="D93" s="211" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8">
+      <c r="D94" s="211"/>
+    </row>
+    <row r="96" spans="3:8">
+      <c r="C96" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7">
+      <c r="C97" t="s">
+        <v>730</v>
+      </c>
+      <c r="D97" t="s">
+        <v>681</v>
+      </c>
+      <c r="F97" s="211" t="s">
+        <v>723</v>
+      </c>
+      <c r="G97" s="211" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7">
+      <c r="D98" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7">
+      <c r="D99" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7">
+      <c r="D101" s="211" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7">
+      <c r="D102" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7">
+      <c r="D103" s="211" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7">
+      <c r="D104" s="211"/>
+    </row>
+    <row r="105" spans="3:7">
+      <c r="D105" s="211"/>
+    </row>
+    <row r="106" spans="3:7">
+      <c r="C106" s="72" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="72" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
